--- a/data/trans_bre/P41A_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.624717726408453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-31.98000890520812</v>
+        <v>-31.98000890520811</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.121445981134435</v>
@@ -649,7 +649,7 @@
         <v>-0.02670384958080376</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.441280737332238</v>
+        <v>-0.4412807373322378</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.57417982401707</v>
+        <v>-12.76227915665687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.819848795815844</v>
+        <v>-6.680478778605472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.353572760278242</v>
+        <v>-7.994672902422771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-45.83318509138328</v>
+        <v>-45.58252114274498</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2366881489185939</v>
+        <v>-0.2190596146696696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1203845261244395</v>
+        <v>-0.1057767717799168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1302930356580261</v>
+        <v>-0.1245065956127331</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5991887291847064</v>
+        <v>-0.5904594604987251</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.056174344359116</v>
+        <v>-0.06052494846303421</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.79640443936516</v>
+        <v>6.75529564022458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.167086822051004</v>
+        <v>5.635592169263523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-18.3630937467256</v>
+        <v>-18.79605701750093</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.02185340288337076</v>
+        <v>0.0008711926925442379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09999275172980206</v>
+        <v>0.1180051264460042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08972544152230137</v>
+        <v>0.09974005855333898</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2818123866648273</v>
+        <v>-0.2863871611965583</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.08616653081169</v>
+        <v>-9.969089442202382</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.92508126273403</v>
+        <v>-13.11711353982149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.024026305339229</v>
+        <v>-6.49804362363268</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-19.22216064385628</v>
+        <v>-19.44548849967179</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1304577443200129</v>
+        <v>-0.1314423471228289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1663771806950418</v>
+        <v>-0.1666378968529245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08006673585083214</v>
+        <v>-0.0857796182514111</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2494502799398307</v>
+        <v>-0.2504699466392794</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03551942632497526</v>
+        <v>-0.1288638012293989</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.633897658952773</v>
+        <v>-2.749379574600361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.339848023092757</v>
+        <v>4.811252521294413</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.648138856517016</v>
+        <v>-2.51020855964505</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.002197831023124536</v>
+        <v>-0.00192008788938567</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03556921091918684</v>
+        <v>-0.03616534535324934</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06279471946626328</v>
+        <v>0.06817379991931996</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05243408537691056</v>
+        <v>-0.03911115329809223</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.786156948929831</v>
+        <v>-7.046110180378519</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.36358084919869</v>
+        <v>-13.62640648737323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.498137315640916</v>
+        <v>-8.579554436208662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.45225406327296</v>
+        <v>-7.494930462934677</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08960475451201204</v>
+        <v>-0.09228276075904929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1802575395708228</v>
+        <v>-0.1793512612205138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1133815923980076</v>
+        <v>-0.1138817647095895</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.105433544515132</v>
+        <v>-0.1074088383548409</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.357944563369556</v>
+        <v>2.936546202522633</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.842138782408963</v>
+        <v>-3.256863701929678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.411990478290954</v>
+        <v>1.434989157930103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.734683662083131</v>
+        <v>4.120408217501558</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04689971786732901</v>
+        <v>0.04046310355694702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.04052341076867597</v>
+        <v>-0.04442128554720329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02027971441787861</v>
+        <v>0.02041375548844073</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07569295729900337</v>
+        <v>0.06500645523251103</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-26.43662748881664</v>
+        <v>-27.07160520447249</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-24.97419511693107</v>
+        <v>-24.62017378033787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-14.49520228318827</v>
+        <v>-15.03567985114245</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-16.84775358627685</v>
+        <v>-17.44896437548959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4346596922777577</v>
+        <v>-0.4367996315445517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4410526817201763</v>
+        <v>-0.4365130110672737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2852700745401925</v>
+        <v>-0.2933301257898518</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2940827801132919</v>
+        <v>-0.2981184026955653</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-13.45415563526701</v>
+        <v>-14.73466904526562</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-13.1352696659756</v>
+        <v>-12.9759665655203</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.60778708141114</v>
+        <v>-3.13641323222514</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-6.182362549137988</v>
+        <v>-6.184048788189161</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2503220975649204</v>
+        <v>-0.2668258594447994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2588041345608424</v>
+        <v>-0.2496082971404461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07929813616305967</v>
+        <v>-0.07447029888169059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1161203372052118</v>
+        <v>-0.1207808659878835</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-11.99617028633201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.853371036550121</v>
+        <v>-5.853371036550123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.588012413931321</v>
@@ -1049,7 +1049,7 @@
         <v>-0.7250831798018109</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.4422399754930972</v>
+        <v>-0.4422399754930973</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.05821633067204</v>
+        <v>-9.988112055953891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.32586582621805</v>
+        <v>-13.06438131645528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.04843064575348</v>
+        <v>-16.30983460439604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.5844639685912</v>
+        <v>-9.277487232403148</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7792754879932197</v>
+        <v>-0.7672267550675157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8388028482020318</v>
+        <v>-0.8342691406341534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8365882609370801</v>
+        <v>-0.8366689663946071</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6052773980112782</v>
+        <v>-0.5979750672534385</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.57124023280608</v>
+        <v>-2.437986855454802</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.658413925620185</v>
+        <v>-5.523359655103997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.781826898393025</v>
+        <v>-7.72110606633591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.618539211004925</v>
+        <v>-2.103025176765238</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2724824699213875</v>
+        <v>-0.2685795231836512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5159078616487208</v>
+        <v>-0.4867570842784388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.5540013498322304</v>
+        <v>-0.5658313780623226</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2276724499754173</v>
+        <v>-0.1941855946445279</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.09964405035509895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.725800447337455</v>
+        <v>-0.7258004473374553</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr">
@@ -1149,7 +1149,7 @@
         <v>-0.1174121919525663</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3086257898326211</v>
+        <v>-0.3086257898326212</v>
       </c>
     </row>
     <row r="20">
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.003387058920846</v>
+        <v>-2.026293651764701</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.704707525820551</v>
+        <v>-2.645256883547087</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.779175083955277</v>
+        <v>-0.7679903372360499</v>
       </c>
     </row>
     <row r="21">
@@ -1185,19 +1185,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>1.711056660692973</v>
+        <v>1.934065930221837</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.405520742880402</v>
+        <v>1.423216255966884</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8501631021354076</v>
+        <v>0.848187774995822</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>0.6882416367608615</v>
+        <v>0.7128203701441974</v>
       </c>
     </row>
     <row r="22">
@@ -1246,14 +1246,14 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3931470932825858</v>
+        <v>0.3480474013638979</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>-1.384115138264588</v>
+        <v>-1.377530017125247</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1268,14 +1268,14 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.555137577491107</v>
+        <v>3.721611593867934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.295011795297199</v>
+        <v>1.64923792999661</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>1.128992545293713</v>
+        <v>1.343147333484676</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1326,28 +1326,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-11.8525964651964</v>
+        <v>-11.89395392201961</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.07346073430667</v>
+        <v>-13.10539519633839</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-9.639638070419258</v>
+        <v>-9.721035283128234</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-9.58324558299473</v>
+        <v>-9.553710051904488</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2326908159259578</v>
+        <v>-0.2340855555433168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2587996810412096</v>
+        <v>-0.2576746951444129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2045487696620448</v>
+        <v>-0.2051079146600876</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2233754127537926</v>
+        <v>-0.2207348107337079</v>
       </c>
     </row>
     <row r="27">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-6.922416262270819</v>
+        <v>-6.837338685907629</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-7.993693567895491</v>
+        <v>-8.272516947346965</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-4.919767159422063</v>
+        <v>-4.943880023264152</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-3.96502073252727</v>
+        <v>-4.017155614534061</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1422689735358941</v>
+        <v>-0.1420262262209321</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1675472282957889</v>
+        <v>-0.170463487309172</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1096496232346727</v>
+        <v>-0.1097920862100889</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09929288733368075</v>
+        <v>-0.103279287003893</v>
       </c>
     </row>
     <row r="28">
